--- a/data_source/InfoStat - Cleaned/bg_infostat_population_by_municipality.xlsx
+++ b/data_source/InfoStat - Cleaned/bg_infostat_population_by_municipality.xlsx
@@ -1729,7 +1729,7 @@
     <t>ЕКАТТЕ</t>
   </si>
   <si>
-    <t>Дата на изготвяне на справката: 18/04/2021</t>
+    <t>Дата на изготвяне на справката: 27/04/2021</t>
   </si>
 </sst>
 </file>
